--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em analisar prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em analisar prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em detalhar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em analisar prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
   </si>
   <si>
-    <t>TC3</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>Beneficiário Clica em cancelar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em detalhar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Beneficiário Clica em analisar prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em analisar prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em analisar prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Beneficiário Clica em detalhar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em cancelar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em analisar prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em detalhar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -116,19 +116,19 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em detalhar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em analisar prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em detalhar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em analisar prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
   </si>
   <si>
-    <t>TC3</t>
+    <t>TC4</t>
   </si>
   <si>
     <t>Beneficiário Clica em cancelar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em analisar prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,28 +107,28 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em detalhar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em analisar prestação de contas.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em detalhar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -107,19 +107,19 @@
     <t>TC2</t>
   </si>
   <si>
+    <t>Beneficiário Clica em cancelar diária.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em cancelar diária.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
   </si>
   <si>
     <t>TC4</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -116,19 +116,19 @@
     <t>TC3</t>
   </si>
   <si>
+    <t>Beneficiário Clica em analisar prestação de contas.</t>
+  </si>
+  <si>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Beneficiário Clica em analisar prestação de contas.</t>
-  </si>
-  <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
   </si>
   <si>
     <t>TC5</t>

--- a/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
+++ b/output/xlsx/UC002 - Gerenciar Diárias do Beneficiário (Minhas Diárias)--GTP-.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">Version: </t>
   </si>
   <si>
-    <t>1.0</t>
+    <t>1.2.5</t>
   </si>
   <si>
     <t>Suite Type:</t>
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Precondition: </t>
   </si>
   <si>
-    <t>O usuario devidamente autenticado e na tela inicial do sistema</t>
+    <t>O usuário devidamente autenticado e na tela inicial do sistema.</t>
   </si>
   <si>
     <t>#</t>
@@ -92,7 +92,7 @@
     <t>Actual Result</t>
   </si>
   <si>
-    <t>Beneficiário O usuario acessa o caso de uso atraves do menu.</t>
+    <t>Beneficiário Acessa o caso de uso através do menu.</t>
   </si>
   <si>
     <t>SYSTEM Apresenta a tela com a lista de diárias daquele beneficiário.</t>
@@ -110,7 +110,7 @@
     <t>Beneficiário Clica em cancelar diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária</t>
+    <t>SYSTEM Apresenta a tela de Cancelar Solicitação de Diária.</t>
   </si>
   <si>
     <t>TC3</t>
@@ -119,7 +119,7 @@
     <t>Beneficiário Clica em analisar prestação de contas.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas</t>
+    <t>SYSTEM Apresenta a tela de Analisar Prestação de Contas.</t>
   </si>
   <si>
     <t>TC4</t>
@@ -128,7 +128,7 @@
     <t>Beneficiário Clica em detalhar diária.</t>
   </si>
   <si>
-    <t>SYSTEM Apresenta a tela de Detalhar Diárias</t>
+    <t>SYSTEM Apresenta a tela de Detalhar Diárias.</t>
   </si>
   <si>
     <t>TC5</t>
